--- a/Location Details/E Cedar St , Zionsville, IN 46077_expos.xlsx
+++ b/Location Details/E Cedar St , Zionsville, IN 46077_expos.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>4.6</v>
       </c>
       <c r="F11" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12">
@@ -726,7 +726,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -867,20 +867,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fern</t>
+          <t>Fanfare Tickets</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="F20" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -889,20 +889,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Floor &amp; Decor</t>
+          <t>Fern</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="F21" t="n">
-        <v>281</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -911,20 +911,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Food Specialties Inc</t>
+          <t>Floor &amp; Decor</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -933,20 +933,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Free Stage</t>
+          <t>Food Specialties Inc</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -955,20 +955,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Great Day Tattoo</t>
+          <t>Grand Park Sports Campus</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="F24" t="n">
-        <v>18</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -977,20 +977,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HOA Affordable Fence Company</t>
+          <t>Great Day Tattoo</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -999,20 +999,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hamilton County Fairgrounds</t>
+          <t>HOA Affordable Fence Company</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="F26" t="n">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Harvest Pavillion</t>
+          <t>Hamilton County Fairgrounds</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1029,12 +1029,12 @@
         <v>4.6</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Hendricks County Fairgrounds</t>
+          <t>Harvest Pavillion</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1051,12 +1051,12 @@
         <v>4.6</v>
       </c>
       <c r="F28" t="n">
-        <v>654</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1065,20 +1065,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hoosier Trim Products</t>
+          <t>Hendricks County Fairgrounds</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>654</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1087,20 +1087,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Indiana Black Expo Inc</t>
+          <t>Hoosier Trim Products</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="F30" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1109,20 +1109,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Indiana Convention Center</t>
+          <t>Indiana Black Expo Inc</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="F31" t="n">
-        <v>527</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1131,20 +1131,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Indiana Flower &amp; Patio Show</t>
+          <t>Indiana Convention Center</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="F32" t="n">
-        <v>60</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1153,20 +1153,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Indiana Latino Expo</t>
+          <t>Indiana Flower &amp; Patio Show</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1175,20 +1175,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Indiana State Fairgrounds &amp; Event Center</t>
+          <t>Indiana Latino Expo</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1197,20 +1197,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Indiana State Numismatic Association</t>
+          <t>Indiana State Fairgrounds &amp; Event Center</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1219,20 +1219,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Indianapolis Auto Show</t>
+          <t>Indiana State Numismatic Association</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1241,20 +1241,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Indianapolis Chapter of Indiana Black Expo, Inc.</t>
+          <t>Indianapolis Auto Show</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Indianapolis Competition Products</t>
+          <t>Indianapolis Chapter of Indiana Black Expo, Inc.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1285,20 +1285,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Indianapolis Motor Speedway</t>
+          <t>Indianapolis Competition Products</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>11013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1307,20 +1307,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JW Marriott Indianapolis</t>
+          <t>Indianapolis Motor Speedway</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="F40" t="n">
-        <v>5754</v>
+        <v>11013</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1329,20 +1329,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Marketplace Events - Indianapolis Office</t>
+          <t>JW Marriott Indianapolis</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1351,20 +1351,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nail Expo</t>
+          <t>Marketplace Events - Indianapolis Office</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1373,20 +1373,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Off Road Expo</t>
+          <t>Nail Expo</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1395,20 +1395,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pan Am Tower</t>
+          <t>Off Road Expo</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1417,20 +1417,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Premier Surface</t>
+          <t>Pan Am Tower</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1439,20 +1439,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Purdue Extension / Horticulture Building</t>
+          <t>Premier Surface</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1461,20 +1461,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Roberts Camera</t>
+          <t>Purdue Extension / Horticulture Building</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="F47" t="n">
-        <v>518</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1483,20 +1483,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Royal Pin Western</t>
+          <t>Roberts Camera</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="F48" t="n">
-        <v>1181</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Royal Pin Woodland</t>
+          <t>Royal Pin Western</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="F49" t="n">
-        <v>1756</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1527,20 +1527,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Samps Hack Shack Brownsburg</t>
+          <t>Royal Pin Woodland</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="F50" t="n">
-        <v>22</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1549,20 +1549,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Shepard Events</t>
+          <t>Samps Hack Shack Brownsburg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Shepard Exposition Services</t>
+          <t>Shepard Events</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1593,20 +1593,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Suburban Indy Home &amp; Outdoor Living Shows</t>
+          <t>Shepard Exposition Services</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1615,20 +1615,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The Home Depot</t>
+          <t>Suburban Indy Home &amp; Outdoor Living Shows</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="F54" t="n">
-        <v>444</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1637,20 +1637,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>The Indiana Convention center</t>
+          <t>The Home Depot</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="F55" t="n">
-        <v>21</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1659,20 +1659,20 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>The Korner Garage</t>
+          <t>The Indiana Convention center</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1681,22 +1681,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Topgolf</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>2</v>
-      </c>
+          <t>The Korner Garage</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
         <v>4.5</v>
       </c>
       <c r="F57" t="n">
-        <v>2965</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1705,15 +1703,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>VIP Center for Business Women</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>Topgolf</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F58" t="n">
-        <v>31</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="59">
